--- a/data/analysis/social_media_analytics/pivot_tables/accreditation-governance/museum_activity_groups__var2-accreditation-governance.xlsx
+++ b/data/analysis/social_media_analytics/pivot_tables/accreditation-governance/museum_activity_groups__var2-accreditation-governance.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="33">
   <si>
     <t>msg_count_twitter</t>
+  </si>
+  <si>
+    <t>msg_count_twitter_engage</t>
   </si>
   <si>
     <t>msg_count_facebook</t>
@@ -467,13 +470,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB25"/>
+  <dimension ref="A1:AO25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:41">
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -505,111 +508,165 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
+      <c r="AC1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:41">
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="AK2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AL2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AM2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AN2" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="AO2" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:41">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:41">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4">
-        <v>1232398</v>
+        <v>539879</v>
       </c>
       <c r="D4">
-        <v>2220.5</v>
+        <v>972.8</v>
       </c>
       <c r="E4">
-        <v>4870.1</v>
+        <v>1574.4</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -618,37 +675,37 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>718</v>
+        <v>412</v>
       </c>
       <c r="I4">
-        <v>2203.5</v>
+        <v>1373</v>
       </c>
       <c r="J4">
-        <v>68140</v>
+        <v>14888</v>
       </c>
       <c r="K4">
         <v>555</v>
       </c>
       <c r="L4">
-        <v>2969.6</v>
+        <v>1459.1</v>
       </c>
       <c r="M4">
-        <v>415</v>
+        <v>370</v>
       </c>
       <c r="N4">
-        <v>74.8</v>
+        <v>66.7</v>
       </c>
       <c r="O4">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="P4">
-        <v>298107</v>
+        <v>153961</v>
       </c>
       <c r="Q4">
-        <v>537.1</v>
+        <v>277.4</v>
       </c>
       <c r="R4">
-        <v>1113.2</v>
+        <v>860.2</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -657,145 +714,223 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="V4">
-        <v>757</v>
+        <v>256.5</v>
       </c>
       <c r="W4">
-        <v>13336</v>
+        <v>12827</v>
       </c>
       <c r="X4">
         <v>555</v>
       </c>
       <c r="Y4">
-        <v>1173.6</v>
+        <v>413.9</v>
       </c>
       <c r="Z4">
-        <v>254</v>
+        <v>372</v>
       </c>
       <c r="AA4">
-        <v>45.8</v>
+        <v>67</v>
       </c>
       <c r="AB4">
         <v>0.5</v>
       </c>
+      <c r="AC4">
+        <v>298107</v>
+      </c>
+      <c r="AD4">
+        <v>537.1</v>
+      </c>
+      <c r="AE4">
+        <v>1113.2</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>757</v>
+      </c>
+      <c r="AJ4">
+        <v>13336</v>
+      </c>
+      <c r="AK4">
+        <v>555</v>
+      </c>
+      <c r="AL4">
+        <v>1173.6</v>
+      </c>
+      <c r="AM4">
+        <v>254</v>
+      </c>
+      <c r="AN4">
+        <v>45.8</v>
+      </c>
+      <c r="AO4">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:41">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5">
-        <v>260884</v>
+        <v>138842</v>
       </c>
       <c r="D5">
-        <v>4348.1</v>
+        <v>2314</v>
       </c>
       <c r="E5">
-        <v>5908.5</v>
+        <v>3629.8</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>386.8</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>2464.5</v>
+        <v>1056.5</v>
       </c>
       <c r="I5">
-        <v>6019.8</v>
+        <v>2995</v>
       </c>
       <c r="J5">
-        <v>23410</v>
+        <v>18330</v>
       </c>
       <c r="K5">
         <v>60</v>
       </c>
       <c r="L5">
-        <v>5217.7</v>
+        <v>3228.9</v>
       </c>
       <c r="M5">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="N5">
-        <v>83.3</v>
+        <v>71.7</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="P5">
-        <v>42645</v>
+        <v>92908</v>
       </c>
       <c r="Q5">
-        <v>710.8</v>
+        <v>1548.5</v>
       </c>
       <c r="R5">
-        <v>661</v>
+        <v>3067.6</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="U5">
-        <v>689.5</v>
+        <v>340</v>
       </c>
       <c r="V5">
-        <v>1113.5</v>
+        <v>1715.8</v>
       </c>
       <c r="W5">
-        <v>2991</v>
+        <v>18016</v>
       </c>
       <c r="X5">
         <v>60</v>
       </c>
       <c r="Y5">
+        <v>2019.7</v>
+      </c>
+      <c r="Z5">
+        <v>46</v>
+      </c>
+      <c r="AA5">
+        <v>76.7</v>
+      </c>
+      <c r="AB5">
+        <v>0.9</v>
+      </c>
+      <c r="AC5">
+        <v>42645</v>
+      </c>
+      <c r="AD5">
+        <v>710.8</v>
+      </c>
+      <c r="AE5">
+        <v>661</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>689.5</v>
+      </c>
+      <c r="AI5">
+        <v>1113.5</v>
+      </c>
+      <c r="AJ5">
+        <v>2991</v>
+      </c>
+      <c r="AK5">
+        <v>60</v>
+      </c>
+      <c r="AL5">
         <v>991.7</v>
       </c>
-      <c r="Z5">
+      <c r="AM5">
         <v>43</v>
       </c>
-      <c r="AA5">
+      <c r="AN5">
         <v>71.7</v>
       </c>
-      <c r="AB5">
+      <c r="AO5">
         <v>1.9</v>
       </c>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:41">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6">
-        <v>366</v>
+        <v>271</v>
       </c>
       <c r="D6">
-        <v>366</v>
+        <v>271</v>
       </c>
       <c r="F6">
-        <v>366</v>
+        <v>271</v>
       </c>
       <c r="G6">
-        <v>366</v>
+        <v>271</v>
       </c>
       <c r="H6">
-        <v>366</v>
+        <v>271</v>
       </c>
       <c r="I6">
-        <v>366</v>
+        <v>271</v>
       </c>
       <c r="J6">
-        <v>366</v>
+        <v>271</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>366</v>
+        <v>271</v>
       </c>
       <c r="M6">
         <v>1</v>
@@ -804,55 +939,91 @@
         <v>100</v>
       </c>
       <c r="O6">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="X6">
         <v>1</v>
       </c>
+      <c r="Y6">
+        <v>94</v>
+      </c>
       <c r="Z6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB6">
+        <v>1.8</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>1</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
         <v>-1.9</v>
       </c>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:41">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7">
-        <v>5987</v>
+        <v>4014</v>
       </c>
       <c r="D7">
-        <v>181.4</v>
+        <v>121.6</v>
       </c>
       <c r="E7">
-        <v>259.3</v>
+        <v>171.5</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -864,34 +1035,34 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>299</v>
+        <v>237</v>
       </c>
       <c r="J7">
-        <v>826</v>
+        <v>533</v>
       </c>
       <c r="K7">
         <v>33</v>
       </c>
       <c r="L7">
-        <v>427.6</v>
+        <v>308.8</v>
       </c>
       <c r="M7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N7">
-        <v>42.4</v>
+        <v>39.4</v>
       </c>
       <c r="O7">
-        <v>-0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="P7">
-        <v>3559</v>
+        <v>1957</v>
       </c>
       <c r="Q7">
-        <v>107.8</v>
+        <v>59.3</v>
       </c>
       <c r="R7">
-        <v>164</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -903,31 +1074,70 @@
         <v>0</v>
       </c>
       <c r="V7">
-        <v>298</v>
+        <v>73</v>
       </c>
       <c r="W7">
-        <v>473</v>
+        <v>327</v>
       </c>
       <c r="X7">
         <v>33</v>
       </c>
       <c r="Y7">
+        <v>139.8</v>
+      </c>
+      <c r="Z7">
+        <v>14</v>
+      </c>
+      <c r="AA7">
+        <v>42.4</v>
+      </c>
+      <c r="AB7">
+        <v>-0.4</v>
+      </c>
+      <c r="AC7">
+        <v>3559</v>
+      </c>
+      <c r="AD7">
+        <v>107.8</v>
+      </c>
+      <c r="AE7">
+        <v>164</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>298</v>
+      </c>
+      <c r="AJ7">
+        <v>473</v>
+      </c>
+      <c r="AK7">
+        <v>33</v>
+      </c>
+      <c r="AL7">
         <v>296.6</v>
       </c>
-      <c r="Z7">
+      <c r="AM7">
         <v>12</v>
       </c>
-      <c r="AA7">
+      <c r="AN7">
         <v>36.4</v>
       </c>
-      <c r="AB7">
+      <c r="AO7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:41">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -963,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>-2.6</v>
+        <v>-2</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -999,22 +1209,58 @@
         <v>0</v>
       </c>
       <c r="AB8">
+        <v>-2</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>9</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
         <v>-1.9</v>
       </c>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:41">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9">
-        <v>95288</v>
+        <v>72656</v>
       </c>
       <c r="D9">
-        <v>666.3</v>
+        <v>508.1</v>
       </c>
       <c r="E9">
-        <v>1123.3</v>
+        <v>893</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1023,37 +1269,37 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>410</v>
+        <v>344</v>
       </c>
       <c r="I9">
-        <v>904</v>
+        <v>756</v>
       </c>
       <c r="J9">
-        <v>9764</v>
+        <v>8769</v>
       </c>
       <c r="K9">
         <v>143</v>
       </c>
       <c r="L9">
-        <v>898.9</v>
+        <v>698.6</v>
       </c>
       <c r="M9">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N9">
-        <v>74.09999999999999</v>
+        <v>72.7</v>
       </c>
       <c r="O9">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="P9">
-        <v>36607</v>
+        <v>22506</v>
       </c>
       <c r="Q9">
-        <v>256</v>
+        <v>157.4</v>
       </c>
       <c r="R9">
-        <v>296.5</v>
+        <v>293.9</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -1062,64 +1308,103 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>166</v>
+        <v>76</v>
       </c>
       <c r="V9">
-        <v>476.5</v>
+        <v>208.5</v>
       </c>
       <c r="W9">
-        <v>1253</v>
+        <v>2905</v>
       </c>
       <c r="X9">
         <v>143</v>
       </c>
       <c r="Y9">
+        <v>212.3</v>
+      </c>
+      <c r="Z9">
+        <v>106</v>
+      </c>
+      <c r="AA9">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="AB9">
+        <v>0.8</v>
+      </c>
+      <c r="AC9">
+        <v>36607</v>
+      </c>
+      <c r="AD9">
+        <v>256</v>
+      </c>
+      <c r="AE9">
+        <v>296.5</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>166</v>
+      </c>
+      <c r="AI9">
+        <v>476.5</v>
+      </c>
+      <c r="AJ9">
+        <v>1253</v>
+      </c>
+      <c r="AK9">
+        <v>143</v>
+      </c>
+      <c r="AL9">
         <v>481.7</v>
       </c>
-      <c r="Z9">
+      <c r="AM9">
         <v>76</v>
       </c>
-      <c r="AA9">
+      <c r="AN9">
         <v>53.1</v>
       </c>
-      <c r="AB9">
+      <c r="AO9">
         <v>0.9</v>
       </c>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:41">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10">
-        <v>7498</v>
+        <v>5495</v>
       </c>
       <c r="D10">
-        <v>749.8</v>
+        <v>549.5</v>
       </c>
       <c r="E10">
-        <v>1015.8</v>
+        <v>701</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>20.2</v>
+        <v>9</v>
       </c>
       <c r="H10">
-        <v>274</v>
+        <v>234</v>
       </c>
       <c r="I10">
-        <v>1235.2</v>
+        <v>1051.8</v>
       </c>
       <c r="J10">
-        <v>2476</v>
+        <v>1662</v>
       </c>
       <c r="K10">
         <v>10</v>
       </c>
       <c r="L10">
-        <v>937.2</v>
+        <v>686.9</v>
       </c>
       <c r="M10">
         <v>8</v>
@@ -1128,100 +1413,139 @@
         <v>80</v>
       </c>
       <c r="O10">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="P10">
-        <v>3968</v>
+        <v>1987</v>
       </c>
       <c r="Q10">
-        <v>396.8</v>
+        <v>198.7</v>
       </c>
       <c r="R10">
-        <v>705.3</v>
+        <v>328.6</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>10.2</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>26.5</v>
       </c>
       <c r="V10">
-        <v>316</v>
+        <v>186.2</v>
       </c>
       <c r="W10">
-        <v>1716</v>
+        <v>809</v>
       </c>
       <c r="X10">
         <v>10</v>
       </c>
       <c r="Y10">
+        <v>248.4</v>
+      </c>
+      <c r="Z10">
+        <v>8</v>
+      </c>
+      <c r="AA10">
+        <v>80</v>
+      </c>
+      <c r="AB10">
+        <v>1</v>
+      </c>
+      <c r="AC10">
+        <v>3968</v>
+      </c>
+      <c r="AD10">
+        <v>396.8</v>
+      </c>
+      <c r="AE10">
+        <v>705.3</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>316</v>
+      </c>
+      <c r="AJ10">
+        <v>1716</v>
+      </c>
+      <c r="AK10">
+        <v>10</v>
+      </c>
+      <c r="AL10">
         <v>992</v>
       </c>
-      <c r="Z10">
+      <c r="AM10">
         <v>4</v>
       </c>
-      <c r="AA10">
+      <c r="AN10">
         <v>40</v>
       </c>
-      <c r="AB10">
+      <c r="AO10">
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:41">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11">
-        <v>1239476</v>
+        <v>671671</v>
       </c>
       <c r="D11">
-        <v>1609.7</v>
+        <v>872.3</v>
       </c>
       <c r="E11">
-        <v>5063.8</v>
+        <v>2745.1</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>301</v>
+        <v>214.5</v>
       </c>
       <c r="I11">
-        <v>1249.5</v>
+        <v>912.8</v>
       </c>
       <c r="J11">
-        <v>74441</v>
+        <v>47580</v>
       </c>
       <c r="K11">
         <v>770</v>
       </c>
       <c r="L11">
-        <v>2108</v>
+        <v>1208</v>
       </c>
       <c r="M11">
-        <v>588</v>
+        <v>556</v>
       </c>
       <c r="N11">
-        <v>76.40000000000001</v>
+        <v>72.2</v>
       </c>
       <c r="O11">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="P11">
-        <v>208010</v>
+        <v>208325</v>
       </c>
       <c r="Q11">
-        <v>270.1</v>
+        <v>270.6</v>
       </c>
       <c r="R11">
-        <v>544.1</v>
+        <v>844.1</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -1230,213 +1554,324 @@
         <v>0</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="V11">
-        <v>368</v>
+        <v>177.8</v>
       </c>
       <c r="W11">
-        <v>6335</v>
+        <v>8505</v>
       </c>
       <c r="X11">
         <v>770</v>
       </c>
       <c r="Y11">
+        <v>371.3</v>
+      </c>
+      <c r="Z11">
+        <v>561</v>
+      </c>
+      <c r="AA11">
+        <v>72.90000000000001</v>
+      </c>
+      <c r="AB11">
+        <v>0.7</v>
+      </c>
+      <c r="AC11">
+        <v>208010</v>
+      </c>
+      <c r="AD11">
+        <v>270.1</v>
+      </c>
+      <c r="AE11">
+        <v>544.1</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>368</v>
+      </c>
+      <c r="AJ11">
+        <v>6335</v>
+      </c>
+      <c r="AK11">
+        <v>770</v>
+      </c>
+      <c r="AL11">
         <v>756.4</v>
       </c>
-      <c r="Z11">
+      <c r="AM11">
         <v>275</v>
       </c>
-      <c r="AA11">
+      <c r="AN11">
         <v>35.7</v>
       </c>
-      <c r="AB11">
+      <c r="AO11">
         <v>-0</v>
       </c>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:41">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12">
-        <v>315367</v>
+        <v>141010</v>
       </c>
       <c r="D12">
-        <v>4505.2</v>
+        <v>2014.4</v>
       </c>
       <c r="E12">
-        <v>8269</v>
+        <v>2432.7</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>642.2</v>
+        <v>239.8</v>
       </c>
       <c r="H12">
-        <v>2206</v>
+        <v>1435.5</v>
       </c>
       <c r="I12">
-        <v>4425.8</v>
+        <v>3134.2</v>
       </c>
       <c r="J12">
-        <v>60386</v>
+        <v>13060</v>
       </c>
       <c r="K12">
         <v>70</v>
       </c>
       <c r="L12">
-        <v>5005.8</v>
+        <v>2473.9</v>
       </c>
       <c r="M12">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="N12">
-        <v>90</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="O12">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="P12">
-        <v>39532</v>
+        <v>91276</v>
       </c>
       <c r="Q12">
-        <v>564.7</v>
+        <v>1303.9</v>
       </c>
       <c r="R12">
-        <v>643.6</v>
+        <v>5773.3</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>46.8</v>
       </c>
       <c r="U12">
-        <v>408</v>
+        <v>230.5</v>
       </c>
       <c r="V12">
-        <v>922.2</v>
+        <v>532.5</v>
       </c>
       <c r="W12">
-        <v>3303</v>
+        <v>46992</v>
       </c>
       <c r="X12">
         <v>70</v>
       </c>
       <c r="Y12">
+        <v>1601.3</v>
+      </c>
+      <c r="Z12">
+        <v>57</v>
+      </c>
+      <c r="AA12">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="AB12">
+        <v>1.1</v>
+      </c>
+      <c r="AC12">
+        <v>39532</v>
+      </c>
+      <c r="AD12">
+        <v>564.7</v>
+      </c>
+      <c r="AE12">
+        <v>643.6</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>408</v>
+      </c>
+      <c r="AI12">
+        <v>922.2</v>
+      </c>
+      <c r="AJ12">
+        <v>3303</v>
+      </c>
+      <c r="AK12">
+        <v>70</v>
+      </c>
+      <c r="AL12">
         <v>941.2</v>
       </c>
-      <c r="Z12">
+      <c r="AM12">
         <v>42</v>
       </c>
-      <c r="AA12">
+      <c r="AN12">
         <v>60</v>
       </c>
-      <c r="AB12">
+      <c r="AO12">
         <v>1.3</v>
       </c>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:41">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13">
-        <v>8415</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>2805</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>2429.3</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2095</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>4190</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>4207.5</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>4225</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>3</v>
       </c>
-      <c r="L13">
-        <v>4207.5</v>
-      </c>
       <c r="M13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>66.7</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0.3</v>
+        <v>-2</v>
       </c>
       <c r="P13">
-        <v>4826</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>1608.7</v>
+        <v>0</v>
       </c>
       <c r="R13">
-        <v>1394.1</v>
+        <v>0</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>1181</v>
+        <v>0</v>
       </c>
       <c r="U13">
-        <v>2362</v>
+        <v>0</v>
       </c>
       <c r="V13">
-        <v>2413</v>
+        <v>0</v>
       </c>
       <c r="W13">
-        <v>2464</v>
+        <v>0</v>
       </c>
       <c r="X13">
         <v>3</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>-2</v>
+      </c>
+      <c r="AC13">
+        <v>4826</v>
+      </c>
+      <c r="AD13">
+        <v>1608.7</v>
+      </c>
+      <c r="AE13">
+        <v>1394.1</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>1181</v>
+      </c>
+      <c r="AH13">
+        <v>2362</v>
+      </c>
+      <c r="AI13">
         <v>2413</v>
       </c>
-      <c r="Z13">
+      <c r="AJ13">
+        <v>2464</v>
+      </c>
+      <c r="AK13">
+        <v>3</v>
+      </c>
+      <c r="AL13">
+        <v>2413</v>
+      </c>
+      <c r="AM13">
         <v>2</v>
       </c>
-      <c r="AA13">
+      <c r="AN13">
         <v>66.7</v>
       </c>
-      <c r="AB13">
+      <c r="AO13">
         <v>1.6</v>
       </c>
     </row>
-    <row r="14" spans="1:28">
+    <row r="14" spans="1:41">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14">
-        <v>398621</v>
+        <v>136733</v>
       </c>
       <c r="D14">
-        <v>2445.5</v>
+        <v>838.9</v>
       </c>
       <c r="E14">
-        <v>5210.7</v>
+        <v>2193.7</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1445,37 +1880,37 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>280</v>
+        <v>10</v>
       </c>
       <c r="I14">
-        <v>1945.5</v>
+        <v>818.5</v>
       </c>
       <c r="J14">
-        <v>30621</v>
+        <v>19900</v>
       </c>
       <c r="K14">
         <v>163</v>
       </c>
       <c r="L14">
-        <v>3796.4</v>
+        <v>1589.9</v>
       </c>
       <c r="M14">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="N14">
-        <v>64.40000000000001</v>
+        <v>52.8</v>
       </c>
       <c r="O14">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>94732</v>
+        <v>43336</v>
       </c>
       <c r="Q14">
-        <v>581.2</v>
+        <v>265.9</v>
       </c>
       <c r="R14">
-        <v>1540.2</v>
+        <v>883.3</v>
       </c>
       <c r="S14">
         <v>0</v>
@@ -1484,64 +1919,103 @@
         <v>0</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V14">
-        <v>510.5</v>
+        <v>95</v>
       </c>
       <c r="W14">
-        <v>13336</v>
+        <v>6137</v>
       </c>
       <c r="X14">
         <v>163</v>
       </c>
       <c r="Y14">
-        <v>1633.3</v>
+        <v>503.9</v>
       </c>
       <c r="Z14">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="AA14">
-        <v>35.6</v>
+        <v>52.8</v>
       </c>
       <c r="AB14">
         <v>-0</v>
       </c>
+      <c r="AC14">
+        <v>94732</v>
+      </c>
+      <c r="AD14">
+        <v>581.2</v>
+      </c>
+      <c r="AE14">
+        <v>1540.2</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>510.5</v>
+      </c>
+      <c r="AJ14">
+        <v>13336</v>
+      </c>
+      <c r="AK14">
+        <v>163</v>
+      </c>
+      <c r="AL14">
+        <v>1633.3</v>
+      </c>
+      <c r="AM14">
+        <v>58</v>
+      </c>
+      <c r="AN14">
+        <v>35.6</v>
+      </c>
+      <c r="AO14">
+        <v>-0</v>
+      </c>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:41">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C15">
-        <v>51093</v>
+        <v>26220</v>
       </c>
       <c r="D15">
-        <v>5677</v>
+        <v>2913.3</v>
       </c>
       <c r="E15">
-        <v>6729.2</v>
+        <v>3252.3</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>549</v>
+        <v>435</v>
       </c>
       <c r="H15">
-        <v>688</v>
+        <v>550</v>
       </c>
       <c r="I15">
-        <v>12630</v>
+        <v>5627</v>
       </c>
       <c r="J15">
-        <v>14929</v>
+        <v>8541</v>
       </c>
       <c r="K15">
         <v>9</v>
       </c>
       <c r="L15">
-        <v>7299</v>
+        <v>3745.7</v>
       </c>
       <c r="M15">
         <v>7</v>
@@ -1550,61 +2024,100 @@
         <v>77.8</v>
       </c>
       <c r="O15">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="P15">
-        <v>4480</v>
+        <v>24633</v>
       </c>
       <c r="Q15">
-        <v>497.8</v>
+        <v>2737</v>
       </c>
       <c r="R15">
-        <v>527.4</v>
+        <v>3901.6</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="U15">
-        <v>537</v>
+        <v>139</v>
       </c>
       <c r="V15">
-        <v>893</v>
+        <v>4057</v>
       </c>
       <c r="W15">
-        <v>1429</v>
+        <v>9196</v>
       </c>
       <c r="X15">
         <v>9</v>
       </c>
       <c r="Y15">
+        <v>3519</v>
+      </c>
+      <c r="Z15">
+        <v>7</v>
+      </c>
+      <c r="AA15">
+        <v>77.8</v>
+      </c>
+      <c r="AB15">
+        <v>0.9</v>
+      </c>
+      <c r="AC15">
+        <v>4480</v>
+      </c>
+      <c r="AD15">
+        <v>497.8</v>
+      </c>
+      <c r="AE15">
+        <v>527.4</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>537</v>
+      </c>
+      <c r="AI15">
+        <v>893</v>
+      </c>
+      <c r="AJ15">
+        <v>1429</v>
+      </c>
+      <c r="AK15">
+        <v>9</v>
+      </c>
+      <c r="AL15">
         <v>896</v>
       </c>
-      <c r="Z15">
+      <c r="AM15">
         <v>5</v>
       </c>
-      <c r="AA15">
+      <c r="AN15">
         <v>55.6</v>
       </c>
-      <c r="AB15">
+      <c r="AO15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" spans="1:41">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C16">
-        <v>2898</v>
+        <v>2181</v>
       </c>
       <c r="D16">
-        <v>724.5</v>
+        <v>545.2</v>
       </c>
       <c r="E16">
-        <v>966.6</v>
+        <v>769.8</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1613,19 +2126,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>428</v>
+        <v>274</v>
       </c>
       <c r="I16">
-        <v>1152.5</v>
+        <v>819.2</v>
       </c>
       <c r="J16">
-        <v>2042</v>
+        <v>1633</v>
       </c>
       <c r="K16">
         <v>4</v>
       </c>
       <c r="L16">
-        <v>1449</v>
+        <v>1090.5</v>
       </c>
       <c r="M16">
         <v>2</v>
@@ -1634,16 +2147,16 @@
         <v>50</v>
       </c>
       <c r="O16">
-        <v>-0.4</v>
+        <v>-0.1</v>
       </c>
       <c r="P16">
-        <v>1252</v>
+        <v>715</v>
       </c>
       <c r="Q16">
-        <v>313</v>
+        <v>178.8</v>
       </c>
       <c r="R16">
-        <v>363.6</v>
+        <v>211</v>
       </c>
       <c r="S16">
         <v>0</v>
@@ -1652,19 +2165,19 @@
         <v>0</v>
       </c>
       <c r="U16">
-        <v>288.5</v>
+        <v>152</v>
       </c>
       <c r="V16">
-        <v>601.5</v>
+        <v>330.8</v>
       </c>
       <c r="W16">
-        <v>675</v>
+        <v>411</v>
       </c>
       <c r="X16">
         <v>4</v>
       </c>
       <c r="Y16">
-        <v>626</v>
+        <v>357.5</v>
       </c>
       <c r="Z16">
         <v>2</v>
@@ -1673,22 +2186,61 @@
         <v>50</v>
       </c>
       <c r="AB16">
+        <v>-0.1</v>
+      </c>
+      <c r="AC16">
+        <v>1252</v>
+      </c>
+      <c r="AD16">
+        <v>313</v>
+      </c>
+      <c r="AE16">
+        <v>363.6</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>288.5</v>
+      </c>
+      <c r="AI16">
+        <v>601.5</v>
+      </c>
+      <c r="AJ16">
+        <v>675</v>
+      </c>
+      <c r="AK16">
+        <v>4</v>
+      </c>
+      <c r="AL16">
+        <v>626</v>
+      </c>
+      <c r="AM16">
+        <v>2</v>
+      </c>
+      <c r="AN16">
+        <v>50</v>
+      </c>
+      <c r="AO16">
         <v>0.7</v>
       </c>
     </row>
-    <row r="17" spans="1:28">
+    <row r="17" spans="1:41">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C17">
-        <v>5267</v>
+        <v>3789</v>
       </c>
       <c r="D17">
-        <v>277.2</v>
+        <v>199.4</v>
       </c>
       <c r="E17">
-        <v>698.3</v>
+        <v>503</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1700,34 +2252,34 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="J17">
-        <v>2773</v>
+        <v>2032</v>
       </c>
       <c r="K17">
         <v>19</v>
       </c>
       <c r="L17">
-        <v>658.4</v>
+        <v>541.3</v>
       </c>
       <c r="M17">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N17">
-        <v>42.1</v>
+        <v>36.8</v>
       </c>
       <c r="O17">
-        <v>-0.8</v>
+        <v>-0.6</v>
       </c>
       <c r="P17">
-        <v>1674</v>
+        <v>1457</v>
       </c>
       <c r="Q17">
-        <v>88.09999999999999</v>
+        <v>76.7</v>
       </c>
       <c r="R17">
-        <v>204.4</v>
+        <v>193.9</v>
       </c>
       <c r="S17">
         <v>0</v>
@@ -1739,40 +2291,79 @@
         <v>0</v>
       </c>
       <c r="V17">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="W17">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="X17">
         <v>19</v>
       </c>
       <c r="Y17">
+        <v>182.1</v>
+      </c>
+      <c r="Z17">
+        <v>8</v>
+      </c>
+      <c r="AA17">
+        <v>42.1</v>
+      </c>
+      <c r="AB17">
+        <v>-0.4</v>
+      </c>
+      <c r="AC17">
+        <v>1674</v>
+      </c>
+      <c r="AD17">
+        <v>88.09999999999999</v>
+      </c>
+      <c r="AE17">
+        <v>204.4</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
+      </c>
+      <c r="AJ17">
+        <v>727</v>
+      </c>
+      <c r="AK17">
+        <v>19</v>
+      </c>
+      <c r="AL17">
         <v>418.5</v>
       </c>
-      <c r="Z17">
+      <c r="AM17">
         <v>4</v>
       </c>
-      <c r="AA17">
+      <c r="AN17">
         <v>21.1</v>
       </c>
-      <c r="AB17">
+      <c r="AO17">
         <v>-0.8</v>
       </c>
     </row>
-    <row r="18" spans="1:28">
+    <row r="18" spans="1:41">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18">
-        <v>7239</v>
+        <v>650</v>
       </c>
       <c r="D18">
-        <v>723.9</v>
+        <v>65</v>
       </c>
       <c r="E18">
-        <v>2043.1</v>
+        <v>205.5</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1787,31 +2378,31 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6501</v>
+        <v>650</v>
       </c>
       <c r="K18">
         <v>10</v>
       </c>
       <c r="L18">
-        <v>3619.5</v>
+        <v>650</v>
       </c>
       <c r="M18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N18">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="O18">
-        <v>-1.7</v>
+        <v>-1.6</v>
       </c>
       <c r="P18">
-        <v>672</v>
+        <v>86</v>
       </c>
       <c r="Q18">
-        <v>67.2</v>
+        <v>8.6</v>
       </c>
       <c r="R18">
-        <v>144.4</v>
+        <v>27.2</v>
       </c>
       <c r="S18">
         <v>0</v>
@@ -1826,37 +2417,76 @@
         <v>0</v>
       </c>
       <c r="W18">
-        <v>395</v>
+        <v>86</v>
       </c>
       <c r="X18">
         <v>10</v>
       </c>
       <c r="Y18">
+        <v>86</v>
+      </c>
+      <c r="Z18">
+        <v>1</v>
+      </c>
+      <c r="AA18">
+        <v>10</v>
+      </c>
+      <c r="AB18">
+        <v>-1.7</v>
+      </c>
+      <c r="AC18">
+        <v>672</v>
+      </c>
+      <c r="AD18">
+        <v>67.2</v>
+      </c>
+      <c r="AE18">
+        <v>144.4</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18">
+        <v>395</v>
+      </c>
+      <c r="AK18">
+        <v>10</v>
+      </c>
+      <c r="AL18">
         <v>336</v>
       </c>
-      <c r="Z18">
+      <c r="AM18">
         <v>2</v>
       </c>
-      <c r="AA18">
+      <c r="AN18">
         <v>20</v>
       </c>
-      <c r="AB18">
+      <c r="AO18">
         <v>-0.8</v>
       </c>
     </row>
-    <row r="19" spans="1:28">
+    <row r="19" spans="1:41">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19">
-        <v>18631</v>
+        <v>13995</v>
       </c>
       <c r="D19">
-        <v>465.8</v>
+        <v>349.9</v>
       </c>
       <c r="E19">
-        <v>1280.7</v>
+        <v>953.2</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1865,37 +2495,37 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="I19">
-        <v>238.5</v>
+        <v>179.5</v>
       </c>
       <c r="J19">
-        <v>6242</v>
+        <v>5055</v>
       </c>
       <c r="K19">
         <v>40</v>
       </c>
       <c r="L19">
-        <v>776.3</v>
+        <v>608.5</v>
       </c>
       <c r="M19">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N19">
-        <v>60</v>
+        <v>57.5</v>
       </c>
       <c r="O19">
-        <v>-0</v>
+        <v>0.2</v>
       </c>
       <c r="P19">
-        <v>5677</v>
+        <v>4626</v>
       </c>
       <c r="Q19">
-        <v>141.9</v>
+        <v>115.6</v>
       </c>
       <c r="R19">
-        <v>290.4</v>
+        <v>359.6</v>
       </c>
       <c r="S19">
         <v>0</v>
@@ -1904,43 +2534,82 @@
         <v>0</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="V19">
-        <v>104.8</v>
+        <v>44.8</v>
       </c>
       <c r="W19">
-        <v>1107</v>
+        <v>1968</v>
       </c>
       <c r="X19">
         <v>40</v>
       </c>
       <c r="Y19">
+        <v>192.8</v>
+      </c>
+      <c r="Z19">
+        <v>24</v>
+      </c>
+      <c r="AA19">
+        <v>60</v>
+      </c>
+      <c r="AB19">
+        <v>0.2</v>
+      </c>
+      <c r="AC19">
+        <v>5677</v>
+      </c>
+      <c r="AD19">
+        <v>141.9</v>
+      </c>
+      <c r="AE19">
+        <v>290.4</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>104.8</v>
+      </c>
+      <c r="AJ19">
+        <v>1107</v>
+      </c>
+      <c r="AK19">
+        <v>40</v>
+      </c>
+      <c r="AL19">
         <v>516.1</v>
       </c>
-      <c r="Z19">
+      <c r="AM19">
         <v>11</v>
       </c>
-      <c r="AA19">
+      <c r="AN19">
         <v>27.5</v>
       </c>
-      <c r="AB19">
+      <c r="AO19">
         <v>-0.4</v>
       </c>
     </row>
-    <row r="20" spans="1:28">
+    <row r="20" spans="1:41">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20">
-        <v>5364</v>
+        <v>3862</v>
       </c>
       <c r="D20">
-        <v>335.2</v>
+        <v>241.4</v>
       </c>
       <c r="E20">
-        <v>533.7</v>
+        <v>370.3</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1952,16 +2621,16 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>562.8</v>
+        <v>471</v>
       </c>
       <c r="J20">
-        <v>1550</v>
+        <v>1122</v>
       </c>
       <c r="K20">
         <v>16</v>
       </c>
       <c r="L20">
-        <v>766.3</v>
+        <v>551.7</v>
       </c>
       <c r="M20">
         <v>7</v>
@@ -1970,16 +2639,16 @@
         <v>43.8</v>
       </c>
       <c r="O20">
-        <v>-0.7</v>
+        <v>-0.3</v>
       </c>
       <c r="P20">
-        <v>1503</v>
+        <v>1493</v>
       </c>
       <c r="Q20">
-        <v>93.90000000000001</v>
+        <v>93.3</v>
       </c>
       <c r="R20">
-        <v>206.6</v>
+        <v>203.1</v>
       </c>
       <c r="S20">
         <v>0</v>
@@ -1991,40 +2660,79 @@
         <v>0</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="W20">
-        <v>596</v>
+        <v>731</v>
       </c>
       <c r="X20">
         <v>16</v>
       </c>
       <c r="Y20">
+        <v>213.3</v>
+      </c>
+      <c r="Z20">
+        <v>7</v>
+      </c>
+      <c r="AA20">
+        <v>43.8</v>
+      </c>
+      <c r="AB20">
+        <v>-0.4</v>
+      </c>
+      <c r="AC20">
+        <v>1503</v>
+      </c>
+      <c r="AD20">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="AE20">
+        <v>206.6</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
+      </c>
+      <c r="AJ20">
+        <v>596</v>
+      </c>
+      <c r="AK20">
+        <v>16</v>
+      </c>
+      <c r="AL20">
         <v>501</v>
       </c>
-      <c r="Z20">
+      <c r="AM20">
         <v>3</v>
       </c>
-      <c r="AA20">
+      <c r="AN20">
         <v>18.8</v>
       </c>
-      <c r="AB20">
+      <c r="AO20">
         <v>-0.9</v>
       </c>
     </row>
-    <row r="21" spans="1:28">
+    <row r="21" spans="1:41">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C21">
-        <v>965880</v>
+        <v>360422</v>
       </c>
       <c r="D21">
-        <v>1267.6</v>
+        <v>473</v>
       </c>
       <c r="E21">
-        <v>4449.7</v>
+        <v>977.4</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -2033,37 +2741,37 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="I21">
-        <v>828.5</v>
+        <v>504.8</v>
       </c>
       <c r="J21">
-        <v>72982</v>
+        <v>10768</v>
       </c>
       <c r="K21">
         <v>762</v>
       </c>
       <c r="L21">
-        <v>2136.9</v>
+        <v>876.9</v>
       </c>
       <c r="M21">
-        <v>452</v>
+        <v>411</v>
       </c>
       <c r="N21">
-        <v>59.3</v>
+        <v>53.9</v>
       </c>
       <c r="O21">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>182780</v>
+        <v>153790</v>
       </c>
       <c r="Q21">
-        <v>239.9</v>
+        <v>201.8</v>
       </c>
       <c r="R21">
-        <v>868</v>
+        <v>997.7</v>
       </c>
       <c r="S21">
         <v>0</v>
@@ -2072,43 +2780,82 @@
         <v>0</v>
       </c>
       <c r="U21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V21">
-        <v>146</v>
+        <v>75.8</v>
       </c>
       <c r="W21">
-        <v>20246</v>
+        <v>20111</v>
       </c>
       <c r="X21">
         <v>762</v>
       </c>
       <c r="Y21">
+        <v>374.2</v>
+      </c>
+      <c r="Z21">
+        <v>411</v>
+      </c>
+      <c r="AA21">
+        <v>53.9</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>182780</v>
+      </c>
+      <c r="AD21">
+        <v>239.9</v>
+      </c>
+      <c r="AE21">
+        <v>868</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>146</v>
+      </c>
+      <c r="AJ21">
+        <v>20246</v>
+      </c>
+      <c r="AK21">
+        <v>762</v>
+      </c>
+      <c r="AL21">
         <v>830.8</v>
       </c>
-      <c r="Z21">
+      <c r="AM21">
         <v>220</v>
       </c>
-      <c r="AA21">
+      <c r="AN21">
         <v>28.9</v>
       </c>
-      <c r="AB21">
+      <c r="AO21">
         <v>-0.4</v>
       </c>
     </row>
-    <row r="22" spans="1:28">
+    <row r="22" spans="1:41">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C22">
-        <v>523528</v>
+        <v>194065</v>
       </c>
       <c r="D22">
-        <v>1109.2</v>
+        <v>411.2</v>
       </c>
       <c r="E22">
-        <v>5060.2</v>
+        <v>2388.7</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -2117,37 +2864,37 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>431.8</v>
+        <v>247.2</v>
       </c>
       <c r="J22">
-        <v>68775</v>
+        <v>47571</v>
       </c>
       <c r="K22">
         <v>472</v>
       </c>
       <c r="L22">
-        <v>1939</v>
+        <v>840.1</v>
       </c>
       <c r="M22">
-        <v>270</v>
+        <v>231</v>
       </c>
       <c r="N22">
-        <v>57.2</v>
+        <v>48.9</v>
       </c>
       <c r="O22">
         <v>-0.1</v>
       </c>
       <c r="P22">
-        <v>197427</v>
+        <v>84346</v>
       </c>
       <c r="Q22">
-        <v>418.3</v>
+        <v>178.7</v>
       </c>
       <c r="R22">
-        <v>2518.4</v>
+        <v>1343.8</v>
       </c>
       <c r="S22">
         <v>0</v>
@@ -2156,43 +2903,82 @@
         <v>0</v>
       </c>
       <c r="U22">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="V22">
-        <v>200</v>
+        <v>48.2</v>
       </c>
       <c r="W22">
-        <v>36948</v>
+        <v>20884</v>
       </c>
       <c r="X22">
         <v>472</v>
       </c>
       <c r="Y22">
+        <v>342.9</v>
+      </c>
+      <c r="Z22">
+        <v>246</v>
+      </c>
+      <c r="AA22">
+        <v>52.1</v>
+      </c>
+      <c r="AB22">
+        <v>-0.1</v>
+      </c>
+      <c r="AC22">
+        <v>197427</v>
+      </c>
+      <c r="AD22">
+        <v>418.3</v>
+      </c>
+      <c r="AE22">
+        <v>2518.4</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>200</v>
+      </c>
+      <c r="AJ22">
+        <v>36948</v>
+      </c>
+      <c r="AK22">
+        <v>472</v>
+      </c>
+      <c r="AL22">
         <v>1371</v>
       </c>
-      <c r="Z22">
+      <c r="AM22">
         <v>144</v>
       </c>
-      <c r="AA22">
+      <c r="AN22">
         <v>30.5</v>
       </c>
-      <c r="AB22">
+      <c r="AO22">
         <v>-0.3</v>
       </c>
     </row>
-    <row r="23" spans="1:28">
+    <row r="23" spans="1:41">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C23">
-        <v>195675</v>
+        <v>48825</v>
       </c>
       <c r="D23">
-        <v>1731.6</v>
+        <v>432.1</v>
       </c>
       <c r="E23">
-        <v>6363.6</v>
+        <v>989.4</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -2204,34 +2990,34 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>637</v>
+        <v>250</v>
       </c>
       <c r="J23">
-        <v>52506</v>
+        <v>6108</v>
       </c>
       <c r="K23">
         <v>113</v>
       </c>
       <c r="L23">
-        <v>3763</v>
+        <v>1109.7</v>
       </c>
       <c r="M23">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="N23">
-        <v>46</v>
+        <v>38.9</v>
       </c>
       <c r="O23">
-        <v>-0.6</v>
+        <v>-0.5</v>
       </c>
       <c r="P23">
-        <v>39884</v>
+        <v>15033</v>
       </c>
       <c r="Q23">
-        <v>353</v>
+        <v>133</v>
       </c>
       <c r="R23">
-        <v>2079.3</v>
+        <v>355.9</v>
       </c>
       <c r="S23">
         <v>0</v>
@@ -2243,79 +3029,118 @@
         <v>0</v>
       </c>
       <c r="V23">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="W23">
-        <v>21892</v>
+        <v>2128</v>
       </c>
       <c r="X23">
         <v>113</v>
       </c>
       <c r="Y23">
+        <v>326.8</v>
+      </c>
+      <c r="Z23">
+        <v>46</v>
+      </c>
+      <c r="AA23">
+        <v>40.7</v>
+      </c>
+      <c r="AB23">
+        <v>-0.5</v>
+      </c>
+      <c r="AC23">
+        <v>39884</v>
+      </c>
+      <c r="AD23">
+        <v>353</v>
+      </c>
+      <c r="AE23">
+        <v>2079.3</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>0</v>
+      </c>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AJ23">
+        <v>21892</v>
+      </c>
+      <c r="AK23">
+        <v>113</v>
+      </c>
+      <c r="AL23">
         <v>1477.2</v>
       </c>
-      <c r="Z23">
+      <c r="AM23">
         <v>27</v>
       </c>
-      <c r="AA23">
+      <c r="AN23">
         <v>23.9</v>
       </c>
-      <c r="AB23">
+      <c r="AO23">
         <v>-0.6</v>
       </c>
     </row>
-    <row r="24" spans="1:28">
+    <row r="24" spans="1:41">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C24">
-        <v>43097</v>
+        <v>18965</v>
       </c>
       <c r="D24">
-        <v>1959</v>
+        <v>862</v>
       </c>
       <c r="E24">
-        <v>3207.8</v>
+        <v>1094.6</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>733</v>
+        <v>234</v>
       </c>
       <c r="I24">
-        <v>2573.8</v>
+        <v>1759.8</v>
       </c>
       <c r="J24">
-        <v>14129</v>
+        <v>3386</v>
       </c>
       <c r="K24">
         <v>22</v>
       </c>
       <c r="L24">
-        <v>2693.6</v>
+        <v>1354.6</v>
       </c>
       <c r="M24">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N24">
-        <v>72.7</v>
+        <v>63.6</v>
       </c>
       <c r="O24">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="P24">
-        <v>12055</v>
+        <v>3680</v>
       </c>
       <c r="Q24">
-        <v>548</v>
+        <v>167.3</v>
       </c>
       <c r="R24">
-        <v>1175.9</v>
+        <v>304.5</v>
       </c>
       <c r="S24">
         <v>0</v>
@@ -2324,43 +3149,82 @@
         <v>0</v>
       </c>
       <c r="U24">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="V24">
-        <v>734.8</v>
+        <v>204.5</v>
       </c>
       <c r="W24">
-        <v>5316</v>
+        <v>1258</v>
       </c>
       <c r="X24">
         <v>22</v>
       </c>
       <c r="Y24">
+        <v>262.9</v>
+      </c>
+      <c r="Z24">
+        <v>14</v>
+      </c>
+      <c r="AA24">
+        <v>63.6</v>
+      </c>
+      <c r="AB24">
+        <v>0.4</v>
+      </c>
+      <c r="AC24">
+        <v>12055</v>
+      </c>
+      <c r="AD24">
+        <v>548</v>
+      </c>
+      <c r="AE24">
+        <v>1175.9</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <v>0</v>
+      </c>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>734.8</v>
+      </c>
+      <c r="AJ24">
+        <v>5316</v>
+      </c>
+      <c r="AK24">
+        <v>22</v>
+      </c>
+      <c r="AL24">
         <v>1339.4</v>
       </c>
-      <c r="Z24">
+      <c r="AM24">
         <v>9</v>
       </c>
-      <c r="AA24">
+      <c r="AN24">
         <v>40.9</v>
       </c>
-      <c r="AB24">
+      <c r="AO24">
         <v>0.3</v>
       </c>
     </row>
-    <row r="25" spans="1:28">
+    <row r="25" spans="1:41">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C25">
-        <v>59979</v>
+        <v>20284</v>
       </c>
       <c r="D25">
-        <v>1090.5</v>
+        <v>368.8</v>
       </c>
       <c r="E25">
-        <v>3863.5</v>
+        <v>1006.2</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -2372,34 +3236,34 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>209.5</v>
+        <v>107.5</v>
       </c>
       <c r="J25">
-        <v>26102</v>
+        <v>4946</v>
       </c>
       <c r="K25">
         <v>55</v>
       </c>
       <c r="L25">
-        <v>2499.1</v>
+        <v>922</v>
       </c>
       <c r="M25">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N25">
-        <v>43.6</v>
+        <v>40</v>
       </c>
       <c r="O25">
-        <v>-0.7</v>
+        <v>-0.5</v>
       </c>
       <c r="P25">
-        <v>7226</v>
+        <v>2853</v>
       </c>
       <c r="Q25">
-        <v>131.4</v>
+        <v>51.9</v>
       </c>
       <c r="R25">
-        <v>343.6</v>
+        <v>132.5</v>
       </c>
       <c r="S25">
         <v>0</v>
@@ -2411,31 +3275,71 @@
         <v>0</v>
       </c>
       <c r="V25">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W25">
-        <v>1735</v>
+        <v>648</v>
       </c>
       <c r="X25">
         <v>55</v>
       </c>
       <c r="Y25">
+        <v>142.6</v>
+      </c>
+      <c r="Z25">
+        <v>20</v>
+      </c>
+      <c r="AA25">
+        <v>36.4</v>
+      </c>
+      <c r="AB25">
+        <v>-0.7</v>
+      </c>
+      <c r="AC25">
+        <v>7226</v>
+      </c>
+      <c r="AD25">
+        <v>131.4</v>
+      </c>
+      <c r="AE25">
+        <v>343.6</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
+        <v>0</v>
+      </c>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
+      </c>
+      <c r="AJ25">
+        <v>1735</v>
+      </c>
+      <c r="AK25">
+        <v>55</v>
+      </c>
+      <c r="AL25">
         <v>555.8</v>
       </c>
-      <c r="Z25">
+      <c r="AM25">
         <v>13</v>
       </c>
-      <c r="AA25">
+      <c r="AN25">
         <v>23.6</v>
       </c>
-      <c r="AB25">
+      <c r="AO25">
         <v>-0.6</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="C1:O1"/>
     <mergeCell ref="P1:AB1"/>
+    <mergeCell ref="AC1:AO1"/>
     <mergeCell ref="A4:A12"/>
     <mergeCell ref="A13:A25"/>
   </mergeCells>

--- a/data/analysis/social_media_analytics/pivot_tables/accreditation-governance/museum_activity_groups__var2-accreditation-governance.xlsx
+++ b/data/analysis/social_media_analytics/pivot_tables/accreditation-governance/museum_activity_groups__var2-accreditation-governance.xlsx
@@ -660,13 +660,13 @@
         <v>20</v>
       </c>
       <c r="C4">
-        <v>539879</v>
+        <v>629338</v>
       </c>
       <c r="D4">
-        <v>972.8</v>
+        <v>1133.9</v>
       </c>
       <c r="E4">
-        <v>1574.4</v>
+        <v>1929.4</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -675,37 +675,37 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>412</v>
+        <v>458</v>
       </c>
       <c r="I4">
-        <v>1373</v>
+        <v>1624</v>
       </c>
       <c r="J4">
-        <v>14888</v>
+        <v>22972</v>
       </c>
       <c r="K4">
         <v>555</v>
       </c>
       <c r="L4">
-        <v>1459.1</v>
+        <v>1738.5</v>
       </c>
       <c r="M4">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="N4">
-        <v>66.7</v>
+        <v>65.2</v>
       </c>
       <c r="O4">
         <v>0.5</v>
       </c>
       <c r="P4">
-        <v>153961</v>
+        <v>179167</v>
       </c>
       <c r="Q4">
-        <v>277.4</v>
+        <v>322.8</v>
       </c>
       <c r="R4">
-        <v>860.2</v>
+        <v>1101.3</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -714,37 +714,37 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="V4">
-        <v>256.5</v>
+        <v>297</v>
       </c>
       <c r="W4">
-        <v>12827</v>
+        <v>17700</v>
       </c>
       <c r="X4">
         <v>555</v>
       </c>
       <c r="Y4">
-        <v>413.9</v>
+        <v>489.5</v>
       </c>
       <c r="Z4">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="AA4">
-        <v>67</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="AB4">
         <v>0.5</v>
       </c>
       <c r="AC4">
-        <v>298107</v>
+        <v>340655</v>
       </c>
       <c r="AD4">
-        <v>537.1</v>
+        <v>613.8</v>
       </c>
       <c r="AE4">
-        <v>1113.2</v>
+        <v>810.7</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -753,28 +753,28 @@
         <v>0</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>351</v>
       </c>
       <c r="AI4">
-        <v>757</v>
+        <v>982</v>
       </c>
       <c r="AJ4">
-        <v>13336</v>
+        <v>8295</v>
       </c>
       <c r="AK4">
         <v>555</v>
       </c>
       <c r="AL4">
-        <v>1173.6</v>
+        <v>882.5</v>
       </c>
       <c r="AM4">
-        <v>254</v>
+        <v>386</v>
       </c>
       <c r="AN4">
-        <v>45.8</v>
+        <v>69.5</v>
       </c>
       <c r="AO4">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="5" spans="1:41">
@@ -783,13 +783,13 @@
         <v>21</v>
       </c>
       <c r="C5">
-        <v>138842</v>
+        <v>165153</v>
       </c>
       <c r="D5">
-        <v>2314</v>
+        <v>2752.6</v>
       </c>
       <c r="E5">
-        <v>3629.8</v>
+        <v>4514.9</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -798,106 +798,106 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1056.5</v>
+        <v>1225.5</v>
       </c>
       <c r="I5">
-        <v>2995</v>
+        <v>3753.5</v>
       </c>
       <c r="J5">
-        <v>18330</v>
+        <v>23112</v>
       </c>
       <c r="K5">
         <v>60</v>
       </c>
       <c r="L5">
-        <v>3228.9</v>
+        <v>4028.1</v>
       </c>
       <c r="M5">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N5">
-        <v>71.7</v>
+        <v>68.3</v>
       </c>
       <c r="O5">
         <v>0.7</v>
       </c>
       <c r="P5">
-        <v>92908</v>
+        <v>110218</v>
       </c>
       <c r="Q5">
-        <v>1548.5</v>
+        <v>1837</v>
       </c>
       <c r="R5">
-        <v>3067.6</v>
+        <v>3610.6</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>340</v>
+        <v>420</v>
       </c>
       <c r="V5">
-        <v>1715.8</v>
+        <v>1846.8</v>
       </c>
       <c r="W5">
-        <v>18016</v>
+        <v>20340</v>
       </c>
       <c r="X5">
         <v>60</v>
       </c>
       <c r="Y5">
-        <v>2019.7</v>
+        <v>2505</v>
       </c>
       <c r="Z5">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AA5">
-        <v>76.7</v>
+        <v>73.3</v>
       </c>
       <c r="AB5">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="AC5">
-        <v>42645</v>
+        <v>58098</v>
       </c>
       <c r="AD5">
-        <v>710.8</v>
+        <v>968.3</v>
       </c>
       <c r="AE5">
-        <v>661</v>
+        <v>856.5</v>
       </c>
       <c r="AF5">
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>49.8</v>
       </c>
       <c r="AH5">
-        <v>689.5</v>
+        <v>879.5</v>
       </c>
       <c r="AI5">
-        <v>1113.5</v>
+        <v>1559.5</v>
       </c>
       <c r="AJ5">
-        <v>2991</v>
+        <v>3465</v>
       </c>
       <c r="AK5">
         <v>60</v>
       </c>
       <c r="AL5">
-        <v>991.7</v>
+        <v>1236.1</v>
       </c>
       <c r="AM5">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="AN5">
-        <v>71.7</v>
+        <v>78.3</v>
       </c>
       <c r="AO5">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="6" spans="1:41">
@@ -906,31 +906,31 @@
         <v>22</v>
       </c>
       <c r="C6">
-        <v>271</v>
+        <v>368</v>
       </c>
       <c r="D6">
-        <v>271</v>
+        <v>368</v>
       </c>
       <c r="F6">
-        <v>271</v>
+        <v>368</v>
       </c>
       <c r="G6">
-        <v>271</v>
+        <v>368</v>
       </c>
       <c r="H6">
-        <v>271</v>
+        <v>368</v>
       </c>
       <c r="I6">
-        <v>271</v>
+        <v>368</v>
       </c>
       <c r="J6">
-        <v>271</v>
+        <v>368</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>271</v>
+        <v>368</v>
       </c>
       <c r="M6">
         <v>1</v>
@@ -939,34 +939,34 @@
         <v>100</v>
       </c>
       <c r="O6">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="P6">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="Q6">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="S6">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="T6">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="U6">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="V6">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="W6">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="X6">
         <v>1</v>
       </c>
       <c r="Y6">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="Z6">
         <v>1</v>
@@ -975,40 +975,43 @@
         <v>100</v>
       </c>
       <c r="AB6">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>349</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>349</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>349</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>349</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>349</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>349</v>
       </c>
       <c r="AJ6">
-        <v>0</v>
+        <v>349</v>
       </c>
       <c r="AK6">
         <v>1</v>
       </c>
+      <c r="AL6">
+        <v>349</v>
+      </c>
       <c r="AM6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AO6">
-        <v>-1.9</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="7" spans="1:41">
@@ -1017,13 +1020,13 @@
         <v>23</v>
       </c>
       <c r="C7">
-        <v>4014</v>
+        <v>4479</v>
       </c>
       <c r="D7">
-        <v>121.6</v>
+        <v>135.7</v>
       </c>
       <c r="E7">
-        <v>171.5</v>
+        <v>199.4</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1035,34 +1038,34 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>237</v>
+        <v>267</v>
       </c>
       <c r="J7">
-        <v>533</v>
+        <v>620</v>
       </c>
       <c r="K7">
         <v>33</v>
       </c>
       <c r="L7">
-        <v>308.8</v>
+        <v>373.2</v>
       </c>
       <c r="M7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N7">
-        <v>39.4</v>
+        <v>36.4</v>
       </c>
       <c r="O7">
-        <v>-0.5</v>
+        <v>-0.6</v>
       </c>
       <c r="P7">
-        <v>1957</v>
+        <v>2109</v>
       </c>
       <c r="Q7">
-        <v>59.3</v>
+        <v>63.9</v>
       </c>
       <c r="R7">
-        <v>94.40000000000001</v>
+        <v>107.5</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -1074,34 +1077,34 @@
         <v>0</v>
       </c>
       <c r="V7">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="W7">
-        <v>327</v>
+        <v>366</v>
       </c>
       <c r="X7">
         <v>33</v>
       </c>
       <c r="Y7">
-        <v>139.8</v>
+        <v>162.2</v>
       </c>
       <c r="Z7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AA7">
-        <v>42.4</v>
+        <v>39.4</v>
       </c>
       <c r="AB7">
-        <v>-0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="AC7">
-        <v>3559</v>
+        <v>6593</v>
       </c>
       <c r="AD7">
-        <v>107.8</v>
+        <v>199.8</v>
       </c>
       <c r="AE7">
-        <v>164</v>
+        <v>318</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1110,28 +1113,28 @@
         <v>0</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AI7">
-        <v>298</v>
+        <v>376</v>
       </c>
       <c r="AJ7">
-        <v>473</v>
+        <v>1623</v>
       </c>
       <c r="AK7">
         <v>33</v>
       </c>
       <c r="AL7">
-        <v>296.6</v>
+        <v>387.8</v>
       </c>
       <c r="AM7">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AN7">
-        <v>36.4</v>
+        <v>51.5</v>
       </c>
       <c r="AO7">
-        <v>0</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="8" spans="1:41">
@@ -1209,16 +1212,16 @@
         <v>0</v>
       </c>
       <c r="AB8">
-        <v>-2</v>
+        <v>-2.1</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>23.3</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1233,16 +1236,19 @@
         <v>0</v>
       </c>
       <c r="AJ8">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AK8">
         <v>9</v>
       </c>
+      <c r="AL8">
+        <v>70</v>
+      </c>
       <c r="AM8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN8">
-        <v>0</v>
+        <v>11.1</v>
       </c>
       <c r="AO8">
         <v>-1.9</v>
@@ -1254,13 +1260,13 @@
         <v>25</v>
       </c>
       <c r="C9">
-        <v>72656</v>
+        <v>85464</v>
       </c>
       <c r="D9">
-        <v>508.1</v>
+        <v>597.7</v>
       </c>
       <c r="E9">
-        <v>893</v>
+        <v>1082</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1269,37 +1275,37 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>344</v>
+        <v>399</v>
       </c>
       <c r="I9">
-        <v>756</v>
+        <v>861</v>
       </c>
       <c r="J9">
-        <v>8769</v>
+        <v>10974</v>
       </c>
       <c r="K9">
         <v>143</v>
       </c>
       <c r="L9">
-        <v>698.6</v>
+        <v>829.7</v>
       </c>
       <c r="M9">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N9">
-        <v>72.7</v>
+        <v>72</v>
       </c>
       <c r="O9">
         <v>0.8</v>
       </c>
       <c r="P9">
-        <v>22506</v>
+        <v>25406</v>
       </c>
       <c r="Q9">
-        <v>157.4</v>
+        <v>177.7</v>
       </c>
       <c r="R9">
-        <v>293.9</v>
+        <v>323.6</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -1308,67 +1314,67 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="V9">
-        <v>208.5</v>
+        <v>238.5</v>
       </c>
       <c r="W9">
-        <v>2905</v>
+        <v>3145</v>
       </c>
       <c r="X9">
         <v>143</v>
       </c>
       <c r="Y9">
-        <v>212.3</v>
+        <v>242</v>
       </c>
       <c r="Z9">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AA9">
-        <v>74.09999999999999</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="AB9">
         <v>0.8</v>
       </c>
       <c r="AC9">
-        <v>36607</v>
+        <v>63499</v>
       </c>
       <c r="AD9">
-        <v>256</v>
+        <v>444</v>
       </c>
       <c r="AE9">
-        <v>296.5</v>
+        <v>344.8</v>
       </c>
       <c r="AF9">
         <v>0</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>163.5</v>
       </c>
       <c r="AH9">
-        <v>166</v>
+        <v>449</v>
       </c>
       <c r="AI9">
-        <v>476.5</v>
+        <v>696.5</v>
       </c>
       <c r="AJ9">
-        <v>1253</v>
+        <v>1703</v>
       </c>
       <c r="AK9">
         <v>143</v>
       </c>
       <c r="AL9">
-        <v>481.7</v>
+        <v>529.2</v>
       </c>
       <c r="AM9">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="AN9">
-        <v>53.1</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="AO9">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:41">
@@ -1377,121 +1383,121 @@
         <v>26</v>
       </c>
       <c r="C10">
-        <v>5495</v>
+        <v>5957</v>
       </c>
       <c r="D10">
-        <v>549.5</v>
+        <v>595.7</v>
       </c>
       <c r="E10">
-        <v>701</v>
+        <v>766.6</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>9</v>
+        <v>13.2</v>
       </c>
       <c r="H10">
-        <v>234</v>
+        <v>246.5</v>
       </c>
       <c r="I10">
-        <v>1051.8</v>
+        <v>1054.8</v>
       </c>
       <c r="J10">
-        <v>1662</v>
+        <v>1856</v>
       </c>
       <c r="K10">
         <v>10</v>
       </c>
       <c r="L10">
-        <v>686.9</v>
+        <v>851</v>
       </c>
       <c r="M10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N10">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="O10">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="P10">
-        <v>1987</v>
+        <v>2038</v>
       </c>
       <c r="Q10">
-        <v>198.7</v>
+        <v>203.8</v>
       </c>
       <c r="R10">
-        <v>328.6</v>
+        <v>333</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10">
-        <v>10.2</v>
+        <v>4</v>
       </c>
       <c r="U10">
-        <v>26.5</v>
+        <v>32</v>
       </c>
       <c r="V10">
-        <v>186.2</v>
+        <v>192.5</v>
       </c>
       <c r="W10">
-        <v>809</v>
+        <v>822</v>
       </c>
       <c r="X10">
         <v>10</v>
       </c>
       <c r="Y10">
-        <v>248.4</v>
+        <v>291.1</v>
       </c>
       <c r="Z10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AA10">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AB10">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AC10">
-        <v>3968</v>
+        <v>8152</v>
       </c>
       <c r="AD10">
-        <v>396.8</v>
+        <v>815.2</v>
       </c>
       <c r="AE10">
-        <v>705.3</v>
+        <v>697.2</v>
       </c>
       <c r="AF10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG10">
-        <v>0</v>
+        <v>339.5</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>581</v>
       </c>
       <c r="AI10">
-        <v>316</v>
+        <v>1031.5</v>
       </c>
       <c r="AJ10">
-        <v>1716</v>
+        <v>1988</v>
       </c>
       <c r="AK10">
         <v>10</v>
       </c>
       <c r="AL10">
-        <v>992</v>
+        <v>815.2</v>
       </c>
       <c r="AM10">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AN10">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="AO10">
-        <v>0.2</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="11" spans="1:41">
@@ -1500,13 +1506,13 @@
         <v>27</v>
       </c>
       <c r="C11">
-        <v>671671</v>
+        <v>792513</v>
       </c>
       <c r="D11">
-        <v>872.3</v>
+        <v>1029.2</v>
       </c>
       <c r="E11">
-        <v>2745.1</v>
+        <v>3224.1</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1515,37 +1521,37 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>214.5</v>
+        <v>260</v>
       </c>
       <c r="I11">
-        <v>912.8</v>
+        <v>1085.8</v>
       </c>
       <c r="J11">
-        <v>47580</v>
+        <v>55081</v>
       </c>
       <c r="K11">
         <v>770</v>
       </c>
       <c r="L11">
-        <v>1208</v>
+        <v>1440.9</v>
       </c>
       <c r="M11">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="N11">
-        <v>72.2</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="O11">
         <v>0.8</v>
       </c>
       <c r="P11">
-        <v>208325</v>
+        <v>240472</v>
       </c>
       <c r="Q11">
-        <v>270.6</v>
+        <v>312.3</v>
       </c>
       <c r="R11">
-        <v>844.1</v>
+        <v>989.3</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -1554,37 +1560,37 @@
         <v>0</v>
       </c>
       <c r="U11">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="V11">
-        <v>177.8</v>
+        <v>203.8</v>
       </c>
       <c r="W11">
-        <v>8505</v>
+        <v>10903</v>
       </c>
       <c r="X11">
         <v>770</v>
       </c>
       <c r="Y11">
-        <v>371.3</v>
+        <v>431.7</v>
       </c>
       <c r="Z11">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="AA11">
-        <v>72.90000000000001</v>
+        <v>72.3</v>
       </c>
       <c r="AB11">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="AC11">
-        <v>208010</v>
+        <v>354741</v>
       </c>
       <c r="AD11">
-        <v>270.1</v>
+        <v>460.7</v>
       </c>
       <c r="AE11">
-        <v>544.1</v>
+        <v>642</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1593,28 +1599,28 @@
         <v>0</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>224.5</v>
       </c>
       <c r="AI11">
-        <v>368</v>
+        <v>667</v>
       </c>
       <c r="AJ11">
-        <v>6335</v>
+        <v>5325</v>
       </c>
       <c r="AK11">
         <v>770</v>
       </c>
       <c r="AL11">
-        <v>756.4</v>
+        <v>648.5</v>
       </c>
       <c r="AM11">
-        <v>275</v>
+        <v>547</v>
       </c>
       <c r="AN11">
-        <v>35.7</v>
+        <v>71</v>
       </c>
       <c r="AO11">
-        <v>-0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:41">
@@ -1623,121 +1629,121 @@
         <v>28</v>
       </c>
       <c r="C12">
-        <v>141010</v>
+        <v>165551</v>
       </c>
       <c r="D12">
-        <v>2014.4</v>
+        <v>2365</v>
       </c>
       <c r="E12">
-        <v>2432.7</v>
+        <v>2812.9</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>239.8</v>
+        <v>326.8</v>
       </c>
       <c r="H12">
-        <v>1435.5</v>
+        <v>1632</v>
       </c>
       <c r="I12">
-        <v>3134.2</v>
+        <v>3697.8</v>
       </c>
       <c r="J12">
-        <v>13060</v>
+        <v>14651</v>
       </c>
       <c r="K12">
         <v>70</v>
       </c>
       <c r="L12">
-        <v>2473.9</v>
+        <v>2956.3</v>
       </c>
       <c r="M12">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N12">
-        <v>81.40000000000001</v>
+        <v>80</v>
       </c>
       <c r="O12">
         <v>1.1</v>
       </c>
       <c r="P12">
-        <v>91276</v>
+        <v>99578</v>
       </c>
       <c r="Q12">
-        <v>1303.9</v>
+        <v>1422.5</v>
       </c>
       <c r="R12">
-        <v>5773.3</v>
+        <v>6031.9</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>46.8</v>
+        <v>56.2</v>
       </c>
       <c r="U12">
-        <v>230.5</v>
+        <v>241.5</v>
       </c>
       <c r="V12">
-        <v>532.5</v>
+        <v>659.8</v>
       </c>
       <c r="W12">
-        <v>46992</v>
+        <v>48717</v>
       </c>
       <c r="X12">
         <v>70</v>
       </c>
       <c r="Y12">
-        <v>1601.3</v>
+        <v>1778.2</v>
       </c>
       <c r="Z12">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AA12">
-        <v>81.40000000000001</v>
+        <v>80</v>
       </c>
       <c r="AB12">
         <v>1.1</v>
       </c>
       <c r="AC12">
-        <v>39532</v>
+        <v>45694</v>
       </c>
       <c r="AD12">
-        <v>564.7</v>
+        <v>652.8</v>
       </c>
       <c r="AE12">
-        <v>643.6</v>
+        <v>661</v>
       </c>
       <c r="AF12">
         <v>0</v>
       </c>
       <c r="AG12">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AH12">
-        <v>408</v>
+        <v>436.5</v>
       </c>
       <c r="AI12">
-        <v>922.2</v>
+        <v>1141.5</v>
       </c>
       <c r="AJ12">
-        <v>3303</v>
+        <v>2204</v>
       </c>
       <c r="AK12">
         <v>70</v>
       </c>
       <c r="AL12">
-        <v>941.2</v>
+        <v>878.7</v>
       </c>
       <c r="AM12">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AN12">
-        <v>60</v>
+        <v>74.3</v>
       </c>
       <c r="AO12">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="13" spans="1:41">
@@ -1817,46 +1823,43 @@
         <v>0</v>
       </c>
       <c r="AB13">
-        <v>-2</v>
+        <v>-2.1</v>
       </c>
       <c r="AC13">
-        <v>4826</v>
+        <v>0</v>
       </c>
       <c r="AD13">
-        <v>1608.7</v>
+        <v>0</v>
       </c>
       <c r="AE13">
-        <v>1394.1</v>
+        <v>0</v>
       </c>
       <c r="AF13">
         <v>0</v>
       </c>
       <c r="AG13">
-        <v>1181</v>
+        <v>0</v>
       </c>
       <c r="AH13">
-        <v>2362</v>
+        <v>0</v>
       </c>
       <c r="AI13">
-        <v>2413</v>
+        <v>0</v>
       </c>
       <c r="AJ13">
-        <v>2464</v>
+        <v>0</v>
       </c>
       <c r="AK13">
         <v>3</v>
       </c>
-      <c r="AL13">
-        <v>2413</v>
-      </c>
       <c r="AM13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN13">
-        <v>66.7</v>
+        <v>0</v>
       </c>
       <c r="AO13">
-        <v>1.6</v>
+        <v>-2.4</v>
       </c>
     </row>
     <row r="14" spans="1:41">
@@ -1865,13 +1868,13 @@
         <v>20</v>
       </c>
       <c r="C14">
-        <v>136733</v>
+        <v>163811</v>
       </c>
       <c r="D14">
-        <v>838.9</v>
+        <v>1005</v>
       </c>
       <c r="E14">
-        <v>2193.7</v>
+        <v>2675.3</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1880,19 +1883,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I14">
-        <v>818.5</v>
+        <v>994.5</v>
       </c>
       <c r="J14">
-        <v>19900</v>
+        <v>24791</v>
       </c>
       <c r="K14">
         <v>163</v>
       </c>
       <c r="L14">
-        <v>1589.9</v>
+        <v>1904.8</v>
       </c>
       <c r="M14">
         <v>86</v>
@@ -1901,16 +1904,16 @@
         <v>52.8</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="P14">
-        <v>43336</v>
+        <v>49774</v>
       </c>
       <c r="Q14">
-        <v>265.9</v>
+        <v>305.4</v>
       </c>
       <c r="R14">
-        <v>883.3</v>
+        <v>1007</v>
       </c>
       <c r="S14">
         <v>0</v>
@@ -1919,19 +1922,19 @@
         <v>0</v>
       </c>
       <c r="U14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V14">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="W14">
-        <v>6137</v>
+        <v>6901</v>
       </c>
       <c r="X14">
         <v>163</v>
       </c>
       <c r="Y14">
-        <v>503.9</v>
+        <v>578.8</v>
       </c>
       <c r="Z14">
         <v>86</v>
@@ -1940,16 +1943,16 @@
         <v>52.8</v>
       </c>
       <c r="AB14">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC14">
-        <v>94732</v>
+        <v>86797</v>
       </c>
       <c r="AD14">
-        <v>581.2</v>
+        <v>532.5</v>
       </c>
       <c r="AE14">
-        <v>1540.2</v>
+        <v>897.5</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -1958,28 +1961,28 @@
         <v>0</v>
       </c>
       <c r="AH14">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AI14">
-        <v>510.5</v>
+        <v>762</v>
       </c>
       <c r="AJ14">
-        <v>13336</v>
+        <v>6193</v>
       </c>
       <c r="AK14">
         <v>163</v>
       </c>
       <c r="AL14">
-        <v>1633.3</v>
+        <v>1033.3</v>
       </c>
       <c r="AM14">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="AN14">
-        <v>35.6</v>
+        <v>51.5</v>
       </c>
       <c r="AO14">
-        <v>-0</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="15" spans="1:41">
@@ -1988,34 +1991,34 @@
         <v>21</v>
       </c>
       <c r="C15">
-        <v>26220</v>
+        <v>30049</v>
       </c>
       <c r="D15">
-        <v>2913.3</v>
+        <v>3338.8</v>
       </c>
       <c r="E15">
-        <v>3252.3</v>
+        <v>3714.4</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="H15">
-        <v>550</v>
+        <v>753</v>
       </c>
       <c r="I15">
-        <v>5627</v>
+        <v>6299</v>
       </c>
       <c r="J15">
-        <v>8541</v>
+        <v>9810</v>
       </c>
       <c r="K15">
         <v>9</v>
       </c>
       <c r="L15">
-        <v>3745.7</v>
+        <v>4292.7</v>
       </c>
       <c r="M15">
         <v>7</v>
@@ -2027,34 +2030,34 @@
         <v>1</v>
       </c>
       <c r="P15">
-        <v>24633</v>
+        <v>27105</v>
       </c>
       <c r="Q15">
-        <v>2737</v>
+        <v>3011.7</v>
       </c>
       <c r="R15">
-        <v>3901.6</v>
+        <v>4269.9</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="U15">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="V15">
-        <v>4057</v>
+        <v>4411</v>
       </c>
       <c r="W15">
-        <v>9196</v>
+        <v>10080</v>
       </c>
       <c r="X15">
         <v>9</v>
       </c>
       <c r="Y15">
-        <v>3519</v>
+        <v>3872.1</v>
       </c>
       <c r="Z15">
         <v>7</v>
@@ -2063,16 +2066,16 @@
         <v>77.8</v>
       </c>
       <c r="AB15">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AC15">
-        <v>4480</v>
+        <v>7205</v>
       </c>
       <c r="AD15">
-        <v>497.8</v>
+        <v>800.6</v>
       </c>
       <c r="AE15">
-        <v>527.4</v>
+        <v>712.9</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2081,28 +2084,28 @@
         <v>0</v>
       </c>
       <c r="AH15">
-        <v>537</v>
+        <v>892</v>
       </c>
       <c r="AI15">
-        <v>893</v>
+        <v>1125</v>
       </c>
       <c r="AJ15">
-        <v>1429</v>
+        <v>1822</v>
       </c>
       <c r="AK15">
         <v>9</v>
       </c>
       <c r="AL15">
-        <v>896</v>
+        <v>1200.8</v>
       </c>
       <c r="AM15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AN15">
-        <v>55.6</v>
+        <v>66.7</v>
       </c>
       <c r="AO15">
-        <v>1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="16" spans="1:41">
@@ -2111,13 +2114,13 @@
         <v>22</v>
       </c>
       <c r="C16">
-        <v>2181</v>
+        <v>2341</v>
       </c>
       <c r="D16">
-        <v>545.2</v>
+        <v>585.2</v>
       </c>
       <c r="E16">
-        <v>769.8</v>
+        <v>820.8</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -2126,19 +2129,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>274</v>
+        <v>300</v>
       </c>
       <c r="I16">
-        <v>819.2</v>
+        <v>885.2</v>
       </c>
       <c r="J16">
-        <v>1633</v>
+        <v>1741</v>
       </c>
       <c r="K16">
         <v>4</v>
       </c>
       <c r="L16">
-        <v>1090.5</v>
+        <v>1170.5</v>
       </c>
       <c r="M16">
         <v>2</v>
@@ -2150,13 +2153,13 @@
         <v>-0.1</v>
       </c>
       <c r="P16">
-        <v>715</v>
+        <v>765</v>
       </c>
       <c r="Q16">
-        <v>178.8</v>
+        <v>191.2</v>
       </c>
       <c r="R16">
-        <v>211</v>
+        <v>226.5</v>
       </c>
       <c r="S16">
         <v>0</v>
@@ -2165,19 +2168,19 @@
         <v>0</v>
       </c>
       <c r="U16">
-        <v>152</v>
+        <v>160.5</v>
       </c>
       <c r="V16">
-        <v>330.8</v>
+        <v>351.8</v>
       </c>
       <c r="W16">
-        <v>411</v>
+        <v>444</v>
       </c>
       <c r="X16">
         <v>4</v>
       </c>
       <c r="Y16">
-        <v>357.5</v>
+        <v>382.5</v>
       </c>
       <c r="Z16">
         <v>2</v>
@@ -2189,13 +2192,13 @@
         <v>-0.1</v>
       </c>
       <c r="AC16">
-        <v>1252</v>
+        <v>1549</v>
       </c>
       <c r="AD16">
-        <v>313</v>
+        <v>387.2</v>
       </c>
       <c r="AE16">
-        <v>363.6</v>
+        <v>449</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2204,19 +2207,19 @@
         <v>0</v>
       </c>
       <c r="AH16">
-        <v>288.5</v>
+        <v>362.5</v>
       </c>
       <c r="AI16">
-        <v>601.5</v>
+        <v>749.8</v>
       </c>
       <c r="AJ16">
-        <v>675</v>
+        <v>824</v>
       </c>
       <c r="AK16">
         <v>4</v>
       </c>
       <c r="AL16">
-        <v>626</v>
+        <v>774.5</v>
       </c>
       <c r="AM16">
         <v>2</v>
@@ -2225,7 +2228,7 @@
         <v>50</v>
       </c>
       <c r="AO16">
-        <v>0.7</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="17" spans="1:41">
@@ -2234,13 +2237,13 @@
         <v>23</v>
       </c>
       <c r="C17">
-        <v>3789</v>
+        <v>4472</v>
       </c>
       <c r="D17">
-        <v>199.4</v>
+        <v>235.4</v>
       </c>
       <c r="E17">
-        <v>503</v>
+        <v>559</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -2252,16 +2255,16 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>81</v>
+        <v>130</v>
       </c>
       <c r="J17">
-        <v>2032</v>
+        <v>2157</v>
       </c>
       <c r="K17">
         <v>19</v>
       </c>
       <c r="L17">
-        <v>541.3</v>
+        <v>638.9</v>
       </c>
       <c r="M17">
         <v>7</v>
@@ -2273,13 +2276,13 @@
         <v>-0.6</v>
       </c>
       <c r="P17">
-        <v>1457</v>
+        <v>1633</v>
       </c>
       <c r="Q17">
-        <v>76.7</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="R17">
-        <v>193.9</v>
+        <v>210.5</v>
       </c>
       <c r="S17">
         <v>0</v>
@@ -2291,16 +2294,16 @@
         <v>0</v>
       </c>
       <c r="V17">
-        <v>15.5</v>
+        <v>24</v>
       </c>
       <c r="W17">
-        <v>730</v>
+        <v>776</v>
       </c>
       <c r="X17">
         <v>19</v>
       </c>
       <c r="Y17">
-        <v>182.1</v>
+        <v>204.1</v>
       </c>
       <c r="Z17">
         <v>8</v>
@@ -2312,13 +2315,13 @@
         <v>-0.4</v>
       </c>
       <c r="AC17">
-        <v>1674</v>
+        <v>4478</v>
       </c>
       <c r="AD17">
-        <v>88.09999999999999</v>
+        <v>235.7</v>
       </c>
       <c r="AE17">
-        <v>204.4</v>
+        <v>389.5</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -2327,28 +2330,28 @@
         <v>0</v>
       </c>
       <c r="AH17">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AI17">
-        <v>0</v>
+        <v>240.5</v>
       </c>
       <c r="AJ17">
-        <v>727</v>
+        <v>1506</v>
       </c>
       <c r="AK17">
         <v>19</v>
       </c>
       <c r="AL17">
-        <v>418.5</v>
+        <v>373.2</v>
       </c>
       <c r="AM17">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="AN17">
-        <v>21.1</v>
+        <v>63.2</v>
       </c>
       <c r="AO17">
-        <v>-0.8</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="18" spans="1:41">
@@ -2357,13 +2360,13 @@
         <v>24</v>
       </c>
       <c r="C18">
-        <v>650</v>
+        <v>739</v>
       </c>
       <c r="D18">
-        <v>65</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="E18">
-        <v>205.5</v>
+        <v>233.7</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -2378,13 +2381,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>650</v>
+        <v>739</v>
       </c>
       <c r="K18">
         <v>10</v>
       </c>
       <c r="L18">
-        <v>650</v>
+        <v>739</v>
       </c>
       <c r="M18">
         <v>1</v>
@@ -2396,13 +2399,13 @@
         <v>-1.6</v>
       </c>
       <c r="P18">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="Q18">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="R18">
-        <v>27.2</v>
+        <v>28.5</v>
       </c>
       <c r="S18">
         <v>0</v>
@@ -2417,13 +2420,13 @@
         <v>0</v>
       </c>
       <c r="W18">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="X18">
         <v>10</v>
       </c>
       <c r="Y18">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="Z18">
         <v>1</v>
@@ -2435,13 +2438,13 @@
         <v>-1.7</v>
       </c>
       <c r="AC18">
-        <v>672</v>
+        <v>3009</v>
       </c>
       <c r="AD18">
-        <v>67.2</v>
+        <v>300.9</v>
       </c>
       <c r="AE18">
-        <v>144.4</v>
+        <v>675</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -2453,25 +2456,25 @@
         <v>0</v>
       </c>
       <c r="AI18">
-        <v>0</v>
+        <v>275.2</v>
       </c>
       <c r="AJ18">
-        <v>395</v>
+        <v>2152</v>
       </c>
       <c r="AK18">
         <v>10</v>
       </c>
       <c r="AL18">
-        <v>336</v>
+        <v>1003</v>
       </c>
       <c r="AM18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN18">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AO18">
-        <v>-0.8</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="19" spans="1:41">
@@ -2480,13 +2483,13 @@
         <v>25</v>
       </c>
       <c r="C19">
-        <v>13995</v>
+        <v>15953</v>
       </c>
       <c r="D19">
-        <v>349.9</v>
+        <v>398.8</v>
       </c>
       <c r="E19">
-        <v>953.2</v>
+        <v>1045.3</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -2495,19 +2498,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>39</v>
+        <v>61.5</v>
       </c>
       <c r="I19">
-        <v>179.5</v>
+        <v>209.8</v>
       </c>
       <c r="J19">
-        <v>5055</v>
+        <v>5409</v>
       </c>
       <c r="K19">
         <v>40</v>
       </c>
       <c r="L19">
-        <v>608.5</v>
+        <v>693.6</v>
       </c>
       <c r="M19">
         <v>23</v>
@@ -2519,13 +2522,13 @@
         <v>0.2</v>
       </c>
       <c r="P19">
-        <v>4626</v>
+        <v>5295</v>
       </c>
       <c r="Q19">
-        <v>115.6</v>
+        <v>132.4</v>
       </c>
       <c r="R19">
-        <v>359.6</v>
+        <v>408.4</v>
       </c>
       <c r="S19">
         <v>0</v>
@@ -2537,34 +2540,34 @@
         <v>6.5</v>
       </c>
       <c r="V19">
-        <v>44.8</v>
+        <v>46</v>
       </c>
       <c r="W19">
-        <v>1968</v>
+        <v>2244</v>
       </c>
       <c r="X19">
         <v>40</v>
       </c>
       <c r="Y19">
-        <v>192.8</v>
+        <v>211.8</v>
       </c>
       <c r="Z19">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA19">
-        <v>60</v>
+        <v>62.5</v>
       </c>
       <c r="AB19">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="AC19">
-        <v>5677</v>
+        <v>10875</v>
       </c>
       <c r="AD19">
-        <v>141.9</v>
+        <v>271.9</v>
       </c>
       <c r="AE19">
-        <v>290.4</v>
+        <v>412.2</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -2573,28 +2576,28 @@
         <v>0</v>
       </c>
       <c r="AH19">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="AI19">
-        <v>104.8</v>
+        <v>334.5</v>
       </c>
       <c r="AJ19">
-        <v>1107</v>
+        <v>1689</v>
       </c>
       <c r="AK19">
         <v>40</v>
       </c>
       <c r="AL19">
-        <v>516.1</v>
+        <v>453.1</v>
       </c>
       <c r="AM19">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="AN19">
-        <v>27.5</v>
+        <v>60</v>
       </c>
       <c r="AO19">
-        <v>-0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:41">
@@ -2603,13 +2606,13 @@
         <v>26</v>
       </c>
       <c r="C20">
-        <v>3862</v>
+        <v>4340</v>
       </c>
       <c r="D20">
-        <v>241.4</v>
+        <v>271.2</v>
       </c>
       <c r="E20">
-        <v>370.3</v>
+        <v>415.5</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -2621,34 +2624,34 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>471</v>
+        <v>634</v>
       </c>
       <c r="J20">
-        <v>1122</v>
+        <v>1249</v>
       </c>
       <c r="K20">
         <v>16</v>
       </c>
       <c r="L20">
-        <v>551.7</v>
+        <v>723.3</v>
       </c>
       <c r="M20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N20">
-        <v>43.8</v>
+        <v>37.5</v>
       </c>
       <c r="O20">
-        <v>-0.3</v>
+        <v>-0.5</v>
       </c>
       <c r="P20">
-        <v>1493</v>
+        <v>1592</v>
       </c>
       <c r="Q20">
-        <v>93.3</v>
+        <v>99.5</v>
       </c>
       <c r="R20">
-        <v>203.1</v>
+        <v>215.5</v>
       </c>
       <c r="S20">
         <v>0</v>
@@ -2660,64 +2663,64 @@
         <v>0</v>
       </c>
       <c r="V20">
-        <v>71</v>
+        <v>83.8</v>
       </c>
       <c r="W20">
-        <v>731</v>
+        <v>788</v>
       </c>
       <c r="X20">
         <v>16</v>
       </c>
       <c r="Y20">
-        <v>213.3</v>
+        <v>265.3</v>
       </c>
       <c r="Z20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AA20">
-        <v>43.8</v>
+        <v>37.5</v>
       </c>
       <c r="AB20">
-        <v>-0.4</v>
+        <v>-0.6</v>
       </c>
       <c r="AC20">
-        <v>1503</v>
+        <v>6151</v>
       </c>
       <c r="AD20">
-        <v>93.90000000000001</v>
+        <v>384.4</v>
       </c>
       <c r="AE20">
-        <v>206.6</v>
+        <v>464.5</v>
       </c>
       <c r="AF20">
         <v>0</v>
       </c>
       <c r="AG20">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH20">
-        <v>0</v>
+        <v>302</v>
       </c>
       <c r="AI20">
-        <v>0</v>
+        <v>595</v>
       </c>
       <c r="AJ20">
-        <v>596</v>
+        <v>1728</v>
       </c>
       <c r="AK20">
         <v>16</v>
       </c>
       <c r="AL20">
-        <v>501</v>
+        <v>473.2</v>
       </c>
       <c r="AM20">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="AN20">
-        <v>18.8</v>
+        <v>81.2</v>
       </c>
       <c r="AO20">
-        <v>-0.9</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="21" spans="1:41">
@@ -2726,13 +2729,13 @@
         <v>27</v>
       </c>
       <c r="C21">
-        <v>360422</v>
+        <v>419863</v>
       </c>
       <c r="D21">
-        <v>473</v>
+        <v>551</v>
       </c>
       <c r="E21">
-        <v>977.4</v>
+        <v>1142.3</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -2741,37 +2744,37 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="I21">
-        <v>504.8</v>
+        <v>580</v>
       </c>
       <c r="J21">
-        <v>10768</v>
+        <v>11943</v>
       </c>
       <c r="K21">
         <v>762</v>
       </c>
       <c r="L21">
-        <v>876.9</v>
+        <v>1029.1</v>
       </c>
       <c r="M21">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="N21">
-        <v>53.9</v>
+        <v>53.5</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="P21">
-        <v>153790</v>
+        <v>182135</v>
       </c>
       <c r="Q21">
-        <v>201.8</v>
+        <v>239</v>
       </c>
       <c r="R21">
-        <v>997.7</v>
+        <v>1190.5</v>
       </c>
       <c r="S21">
         <v>0</v>
@@ -2780,37 +2783,37 @@
         <v>0</v>
       </c>
       <c r="U21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V21">
-        <v>75.8</v>
+        <v>93.8</v>
       </c>
       <c r="W21">
-        <v>20111</v>
+        <v>22462</v>
       </c>
       <c r="X21">
         <v>762</v>
       </c>
       <c r="Y21">
-        <v>374.2</v>
+        <v>446.4</v>
       </c>
       <c r="Z21">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="AA21">
-        <v>53.9</v>
+        <v>53.5</v>
       </c>
       <c r="AB21">
         <v>0</v>
       </c>
       <c r="AC21">
-        <v>182780</v>
+        <v>255511</v>
       </c>
       <c r="AD21">
-        <v>239.9</v>
+        <v>335.3</v>
       </c>
       <c r="AE21">
-        <v>868</v>
+        <v>551.1</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2819,28 +2822,28 @@
         <v>0</v>
       </c>
       <c r="AH21">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="AI21">
-        <v>146</v>
+        <v>499.8</v>
       </c>
       <c r="AJ21">
-        <v>20246</v>
+        <v>4356</v>
       </c>
       <c r="AK21">
         <v>762</v>
       </c>
       <c r="AL21">
-        <v>830.8</v>
+        <v>569.1</v>
       </c>
       <c r="AM21">
-        <v>220</v>
+        <v>449</v>
       </c>
       <c r="AN21">
-        <v>28.9</v>
+        <v>58.9</v>
       </c>
       <c r="AO21">
-        <v>-0.4</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="22" spans="1:41">
@@ -2849,13 +2852,13 @@
         <v>30</v>
       </c>
       <c r="C22">
-        <v>194065</v>
+        <v>225628</v>
       </c>
       <c r="D22">
-        <v>411.2</v>
+        <v>478</v>
       </c>
       <c r="E22">
-        <v>2388.7</v>
+        <v>2689.6</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -2867,34 +2870,34 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>247.2</v>
+        <v>268.8</v>
       </c>
       <c r="J22">
-        <v>47571</v>
+        <v>52263</v>
       </c>
       <c r="K22">
         <v>472</v>
       </c>
       <c r="L22">
-        <v>840.1</v>
+        <v>968.4</v>
       </c>
       <c r="M22">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="N22">
-        <v>48.9</v>
+        <v>49.4</v>
       </c>
       <c r="O22">
         <v>-0.1</v>
       </c>
       <c r="P22">
-        <v>84346</v>
+        <v>100596</v>
       </c>
       <c r="Q22">
-        <v>178.7</v>
+        <v>213.1</v>
       </c>
       <c r="R22">
-        <v>1343.8</v>
+        <v>1634.6</v>
       </c>
       <c r="S22">
         <v>0</v>
@@ -2903,37 +2906,37 @@
         <v>0</v>
       </c>
       <c r="U22">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="V22">
-        <v>48.2</v>
+        <v>56.2</v>
       </c>
       <c r="W22">
-        <v>20884</v>
+        <v>24618</v>
       </c>
       <c r="X22">
         <v>472</v>
       </c>
       <c r="Y22">
-        <v>342.9</v>
+        <v>404</v>
       </c>
       <c r="Z22">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="AA22">
-        <v>52.1</v>
+        <v>52.8</v>
       </c>
       <c r="AB22">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="AC22">
-        <v>197427</v>
+        <v>150366</v>
       </c>
       <c r="AD22">
-        <v>418.3</v>
+        <v>318.6</v>
       </c>
       <c r="AE22">
-        <v>2518.4</v>
+        <v>531.6</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2942,28 +2945,28 @@
         <v>0</v>
       </c>
       <c r="AH22">
-        <v>0</v>
+        <v>52.5</v>
       </c>
       <c r="AI22">
-        <v>200</v>
+        <v>469.2</v>
       </c>
       <c r="AJ22">
-        <v>36948</v>
+        <v>5226</v>
       </c>
       <c r="AK22">
         <v>472</v>
       </c>
       <c r="AL22">
-        <v>1371</v>
+        <v>554.9</v>
       </c>
       <c r="AM22">
-        <v>144</v>
+        <v>271</v>
       </c>
       <c r="AN22">
-        <v>30.5</v>
+        <v>57.4</v>
       </c>
       <c r="AO22">
-        <v>-0.3</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="23" spans="1:41">
@@ -2972,13 +2975,13 @@
         <v>31</v>
       </c>
       <c r="C23">
-        <v>48825</v>
+        <v>58464</v>
       </c>
       <c r="D23">
-        <v>432.1</v>
+        <v>517.4</v>
       </c>
       <c r="E23">
-        <v>989.4</v>
+        <v>1197.4</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -2990,16 +2993,16 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>250</v>
+        <v>326</v>
       </c>
       <c r="J23">
-        <v>6108</v>
+        <v>7355</v>
       </c>
       <c r="K23">
         <v>113</v>
       </c>
       <c r="L23">
-        <v>1109.7</v>
+        <v>1328.7</v>
       </c>
       <c r="M23">
         <v>44</v>
@@ -3011,13 +3014,13 @@
         <v>-0.5</v>
       </c>
       <c r="P23">
-        <v>15033</v>
+        <v>17807</v>
       </c>
       <c r="Q23">
-        <v>133</v>
+        <v>157.6</v>
       </c>
       <c r="R23">
-        <v>355.9</v>
+        <v>430.5</v>
       </c>
       <c r="S23">
         <v>0</v>
@@ -3029,34 +3032,34 @@
         <v>0</v>
       </c>
       <c r="V23">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="W23">
-        <v>2128</v>
+        <v>2724</v>
       </c>
       <c r="X23">
         <v>113</v>
       </c>
       <c r="Y23">
-        <v>326.8</v>
+        <v>378.9</v>
       </c>
       <c r="Z23">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AA23">
-        <v>40.7</v>
+        <v>41.6</v>
       </c>
       <c r="AB23">
-        <v>-0.5</v>
+        <v>-0.4</v>
       </c>
       <c r="AC23">
-        <v>39884</v>
+        <v>38792</v>
       </c>
       <c r="AD23">
-        <v>353</v>
+        <v>343.3</v>
       </c>
       <c r="AE23">
-        <v>2079.3</v>
+        <v>682.1</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -3065,28 +3068,28 @@
         <v>0</v>
       </c>
       <c r="AH23">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AI23">
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="AJ23">
-        <v>21892</v>
+        <v>4927</v>
       </c>
       <c r="AK23">
         <v>113</v>
       </c>
       <c r="AL23">
-        <v>1477.2</v>
+        <v>646.5</v>
       </c>
       <c r="AM23">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="AN23">
-        <v>23.9</v>
+        <v>53.1</v>
       </c>
       <c r="AO23">
-        <v>-0.6</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="24" spans="1:41">
@@ -3095,13 +3098,13 @@
         <v>28</v>
       </c>
       <c r="C24">
-        <v>18965</v>
+        <v>22909</v>
       </c>
       <c r="D24">
-        <v>862</v>
+        <v>1041.3</v>
       </c>
       <c r="E24">
-        <v>1094.6</v>
+        <v>1313.5</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -3110,19 +3113,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>234</v>
+        <v>257.5</v>
       </c>
       <c r="I24">
-        <v>1759.8</v>
+        <v>2184.2</v>
       </c>
       <c r="J24">
-        <v>3386</v>
+        <v>4285</v>
       </c>
       <c r="K24">
         <v>22</v>
       </c>
       <c r="L24">
-        <v>1354.6</v>
+        <v>1636.4</v>
       </c>
       <c r="M24">
         <v>14</v>
@@ -3131,16 +3134,16 @@
         <v>63.6</v>
       </c>
       <c r="O24">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="P24">
-        <v>3680</v>
+        <v>4431</v>
       </c>
       <c r="Q24">
-        <v>167.3</v>
+        <v>201.4</v>
       </c>
       <c r="R24">
-        <v>304.5</v>
+        <v>352.3</v>
       </c>
       <c r="S24">
         <v>0</v>
@@ -3149,19 +3152,19 @@
         <v>0</v>
       </c>
       <c r="U24">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="V24">
-        <v>204.5</v>
+        <v>233</v>
       </c>
       <c r="W24">
-        <v>1258</v>
+        <v>1437</v>
       </c>
       <c r="X24">
         <v>22</v>
       </c>
       <c r="Y24">
-        <v>262.9</v>
+        <v>316.5</v>
       </c>
       <c r="Z24">
         <v>14</v>
@@ -3173,13 +3176,13 @@
         <v>0.4</v>
       </c>
       <c r="AC24">
-        <v>12055</v>
+        <v>6924</v>
       </c>
       <c r="AD24">
-        <v>548</v>
+        <v>314.7</v>
       </c>
       <c r="AE24">
-        <v>1175.9</v>
+        <v>535.8</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -3191,25 +3194,25 @@
         <v>0</v>
       </c>
       <c r="AI24">
-        <v>734.8</v>
+        <v>455.8</v>
       </c>
       <c r="AJ24">
-        <v>5316</v>
+        <v>1845</v>
       </c>
       <c r="AK24">
         <v>22</v>
       </c>
       <c r="AL24">
-        <v>1339.4</v>
+        <v>865.5</v>
       </c>
       <c r="AM24">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AN24">
-        <v>40.9</v>
+        <v>36.4</v>
       </c>
       <c r="AO24">
-        <v>0.3</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="25" spans="1:41">
@@ -3218,13 +3221,13 @@
         <v>32</v>
       </c>
       <c r="C25">
-        <v>20284</v>
+        <v>25556</v>
       </c>
       <c r="D25">
-        <v>368.8</v>
+        <v>464.7</v>
       </c>
       <c r="E25">
-        <v>1006.2</v>
+        <v>1305.2</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -3236,16 +3239,16 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>107.5</v>
+        <v>130</v>
       </c>
       <c r="J25">
-        <v>4946</v>
+        <v>6144</v>
       </c>
       <c r="K25">
         <v>55</v>
       </c>
       <c r="L25">
-        <v>922</v>
+        <v>1161.6</v>
       </c>
       <c r="M25">
         <v>22</v>
@@ -3254,16 +3257,16 @@
         <v>40</v>
       </c>
       <c r="O25">
-        <v>-0.5</v>
+        <v>-0.4</v>
       </c>
       <c r="P25">
-        <v>2853</v>
+        <v>3929</v>
       </c>
       <c r="Q25">
-        <v>51.9</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="R25">
-        <v>132.5</v>
+        <v>198.9</v>
       </c>
       <c r="S25">
         <v>0</v>
@@ -3275,34 +3278,34 @@
         <v>0</v>
       </c>
       <c r="V25">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="W25">
-        <v>648</v>
+        <v>1010</v>
       </c>
       <c r="X25">
         <v>55</v>
       </c>
       <c r="Y25">
-        <v>142.6</v>
+        <v>187.1</v>
       </c>
       <c r="Z25">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AA25">
-        <v>36.4</v>
+        <v>38.2</v>
       </c>
       <c r="AB25">
-        <v>-0.7</v>
+        <v>-0.6</v>
       </c>
       <c r="AC25">
-        <v>7226</v>
+        <v>15178</v>
       </c>
       <c r="AD25">
-        <v>131.4</v>
+        <v>276</v>
       </c>
       <c r="AE25">
-        <v>343.6</v>
+        <v>583.9</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -3311,28 +3314,28 @@
         <v>0</v>
       </c>
       <c r="AH25">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AI25">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="AJ25">
-        <v>1735</v>
+        <v>2668</v>
       </c>
       <c r="AK25">
         <v>55</v>
       </c>
       <c r="AL25">
-        <v>555.8</v>
+        <v>523.4</v>
       </c>
       <c r="AM25">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="AN25">
-        <v>23.6</v>
+        <v>52.7</v>
       </c>
       <c r="AO25">
-        <v>-0.6</v>
+        <v>-0.3</v>
       </c>
     </row>
   </sheetData>
